--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/固定资本形成总额.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/固定资本形成总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,41 +528,43 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2188983.66296955</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>28962231.6199725</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9530000</v>
+      </c>
       <c r="D2" t="n">
-        <v>7239835.71474033</v>
+        <v>33947967.1447719</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>326238000.320994</v>
+        <v>1836151622.3</v>
       </c>
       <c r="G2" t="n">
-        <v>216877093.846889</v>
+        <v>962683064.403476</v>
       </c>
       <c r="H2" t="n">
-        <v>5043700</v>
+        <v>74636000</v>
       </c>
       <c r="I2" t="n">
-        <v>3721584.6</v>
+        <v>28964571.2176557</v>
       </c>
       <c r="J2" t="n">
-        <v>88229098.9174006</v>
+        <v>655167021.357308</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>771846.1</v>
+        <v>37733559.32143</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>2165857.47899423</v>
+        <v>4527207.23538518</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -571,43 +573,43 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2595050.08080483</v>
+        <v>17645127.30565</v>
       </c>
       <c r="C3" t="n">
-        <v>1261146.77874707</v>
+        <v>12097459.9896293</v>
       </c>
       <c r="D3" t="n">
-        <v>7727340.61559297</v>
+        <v>30944274.3902495</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>436321000</v>
+        <v>2377506059.98963</v>
       </c>
       <c r="G3" t="n">
-        <v>272753592.325233</v>
+        <v>1289122577.61883</v>
       </c>
       <c r="H3" t="n">
-        <v>11426735.0726962</v>
+        <v>94064000</v>
       </c>
       <c r="I3" t="n">
-        <v>9547810.23282421</v>
+        <v>46661633.3965823</v>
       </c>
       <c r="J3" t="n">
-        <v>125817797.766345</v>
+        <v>760593392.3989379</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>1975652.37703038</v>
+        <v>97809381.829401</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>3215874.75072707</v>
+        <v>28568213.0603529</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -616,43 +618,43 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6213608.32313829</v>
+        <v>17921458.818029</v>
       </c>
       <c r="C4" t="n">
-        <v>2065700</v>
+        <v>8800900</v>
       </c>
       <c r="D4" t="n">
-        <v>14119437.2530266</v>
+        <v>32581985.7057019</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>773048005.658478</v>
+        <v>2919390015.5642</v>
       </c>
       <c r="G4" t="n">
-        <v>412394111.961125</v>
+        <v>1790724840</v>
       </c>
       <c r="H4" t="n">
-        <v>33730300</v>
+        <v>95956515.5642024</v>
       </c>
       <c r="I4" t="n">
-        <v>17868881.41498</v>
+        <v>68562574.2774884</v>
       </c>
       <c r="J4" t="n">
-        <v>266360662.483776</v>
+        <v>722782855.732906</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>11461104.4846421</v>
+        <v>152694530.786888</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>8834199.737789741</v>
+        <v>29364354.6789868</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -661,43 +663,33 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>19632058.5303488</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3185000</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>10671736.3009226</v>
+        <v>19909101.2391924</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1054358700</v>
+        <v>3591511331.42459</v>
       </c>
       <c r="G5" t="n">
-        <v>588465911.689337</v>
-      </c>
-      <c r="H5" t="n">
-        <v>34062553.9071428</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18821091.920114</v>
-      </c>
+        <v>2180439905.42086</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>355016413.91598</v>
+        <v>784260648.148057</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>14974384.5804981</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>9529549.155657019</v>
+        <v>25586644.4124361</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -706,172 +698,41 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28962231.6199725</v>
+        <v>1945824.44731674</v>
       </c>
       <c r="C6" t="n">
-        <v>9530000</v>
+        <v>5234595.238605</v>
       </c>
       <c r="D6" t="n">
-        <v>33947967.1447719</v>
+        <v>17577339.566559</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1836151622.3</v>
+        <v>4243704003.37183</v>
       </c>
       <c r="G6" t="n">
-        <v>962683064.403476</v>
-      </c>
-      <c r="H6" t="n">
-        <v>74636000</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28964571.2176557</v>
-      </c>
+        <v>2707176325.74967</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>655167021.357308</v>
+        <v>783222749.856351</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>37733559.32143</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>4527207.23538518</v>
+        <v>25162931.8981722</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>17645127.30565</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12097459.9896293</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30944274.3902495</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>2377506059.98963</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1289122577.61883</v>
-      </c>
-      <c r="H7" t="n">
-        <v>94064000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>46661633.3965823</v>
-      </c>
-      <c r="J7" t="n">
-        <v>760593392.3989379</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>97809381.829401</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
-        <v>28568213.0603529</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17921458.818029</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8800900</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32581985.7057019</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>2919390015.5642</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1790724840</v>
-      </c>
-      <c r="H8" t="n">
-        <v>95956515.5642024</v>
-      </c>
-      <c r="I8" t="n">
-        <v>68562574.2774884</v>
-      </c>
-      <c r="J8" t="n">
-        <v>722782855.732906</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
-        <v>152694530.786888</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
-        <v>29364354.6789868</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>19909101.2391924</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>3591511331.42459</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2180439905.42086</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>784260648.148057</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>25586644.4124361</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
